--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7accc9a3914c22/Área de Trabalho/BotComExcell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{A60896B0-9926-4685-822F-CFD67A3F690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CE1D32F-6946-4945-84ED-CE6567C21601}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{A60896B0-9926-4685-822F-CFD67A3F690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC418073-8674-430C-ABAD-1BE1CA85C9B7}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{21F3CABE-E729-426A-841E-B2A4BCAABA46}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nome</t>
   </si>
@@ -42,19 +42,25 @@
     <t xml:space="preserve">Roni Cleiton souza </t>
   </si>
   <si>
-    <t>+5519982626830</t>
-  </si>
-  <si>
-    <t>tatiane silva alves</t>
-  </si>
-  <si>
     <t>Data Criacao</t>
   </si>
   <si>
-    <t>+5519965965432</t>
-  </si>
-  <si>
     <t>Telefone</t>
+  </si>
+  <si>
+    <t>19997092899</t>
+  </si>
+  <si>
+    <t>Guilherms</t>
+  </si>
+  <si>
+    <t>19920003447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willian </t>
+  </si>
+  <si>
+    <t>19920014005</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -447,20 +453,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>43961</v>
+        <v>45870</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
         <v>45871</v>
       </c>
     </row>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -1,42 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7accc9a3914c22/Área de Trabalho/BotComExcell/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_2B59D2BFD370DD31F608CEB34E9750355E73F1E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78BB21B4-5438-4815-987F-EFF27FC453D0}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="51480" yWindow="4320" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Data Criacao</t>
+  </si>
+  <si>
+    <t>Vencimento</t>
+  </si>
+  <si>
+    <t>Pagou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roni cleiton </t>
+  </si>
+  <si>
+    <t>jean Carlos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,95 +90,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,117 +417,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Data Criacao</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roni Cleiton souza </t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>19982626830</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45872</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45872</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>19997092899</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45871</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Guilherms</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>19920003447</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">willian </t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>19920014005</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">roni cleiton </t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>19982626830</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45871</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">roni </t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>19982626830</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45871</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>fdiens</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>194646464646</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>45871</v>
+      <c r="C3" s="2">
+        <v>45872</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45872</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7accc9a3914c22/Área de Trabalho/BotComExcell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_2B59D2BFD370DD31F608CEB34E9750355E73F1E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78BB21B4-5438-4815-987F-EFF27FC453D0}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD3B0590522698C73449750355E73F081" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A939CFCC-E931-40BF-9D38-319FF8012750}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="4320" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nome</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>jean Carlos</t>
+  </si>
+  <si>
+    <t>geonava</t>
+  </si>
+  <si>
+    <t>19986518954</t>
   </si>
 </sst>
 </file>
@@ -48,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,14 +69,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,14 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,18 +415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -476,15 +471,31 @@
       <c r="C3" s="2">
         <v>45872</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>45872</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45872</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45903</v>
+      </c>
+      <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -1,79 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7accc9a3914c22/Área de Trabalho/BotComExcell/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD3B0590522698C73449750355E73F081" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A939CFCC-E931-40BF-9D38-319FF8012750}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="4320" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>Data Criacao</t>
-  </si>
-  <si>
-    <t>Vencimento</t>
-  </si>
-  <si>
-    <t>Pagou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roni cleiton </t>
-  </si>
-  <si>
-    <t>jean Carlos</t>
-  </si>
-  <si>
-    <t>geonava</t>
-  </si>
-  <si>
-    <t>19986518954</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -88,45 +51,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,81 +427,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Data Criacao</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Vencimento</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pagou</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">roni cleiton </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19982626830</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45872</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>19982626830</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jean Carlos</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19997092899</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45872</v>
       </c>
-      <c r="D2" s="2">
-        <v>45872</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>19997092899</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45872</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45872</v>
+      <c r="D3" s="2" t="n">
+        <v>45873</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>geonava</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19986518954</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>45872</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="E4" t="b">

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +476,7 @@
       <c r="C2" s="2" t="n">
         <v>45872</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="E2" t="b">
@@ -489,38 +486,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jean Carlos</t>
+          <t>geonava</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19997092899</v>
+        <v>19986518954</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>45872</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45873</v>
+        <v>45903</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>geonava</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>19986518954</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45872</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45903</v>
-      </c>
-      <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +505,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>roni</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19982626830</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>45916</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,57 +467,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">roni cleiton </t>
+          <t>melisa</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>19982626830</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45872</v>
+        <v>45885</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>geonava</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>19986518954</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45872</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45903</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>roni</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>19982626830</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45885</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>45916</v>
-      </c>
-      <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +486,44 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>roni</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19982626830</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>45920</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>roni</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19982626830</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -65,8 +65,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,9 +476,7 @@
       <c r="B2" t="n">
         <v>19982626830</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45885</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" s="2" t="n">
         <v>45916</v>
       </c>
@@ -495,33 +493,14 @@
       <c r="B3" t="n">
         <v>19982626830</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45885</v>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="C3" s="3" t="n">
+        <v>45889</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>45920</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>roni</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>19982626830</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45888</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -65,8 +65,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,36 +470,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>melisa</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>19982626830</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" s="2" t="n">
-        <v>45916</v>
+          <t>roni</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>19982626830</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>45893</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>roni</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>19982626830</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>45889</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45920</v>
-      </c>
-      <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -481,11 +478,11 @@
       <c r="C2" s="2" t="n">
         <v>45893</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>45893</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
